--- a/docs/team_41_test_plan.xlsx
+++ b/docs/team_41_test_plan.xlsx
@@ -1,19 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinitmehta/Desktop/IIITH/Sem4/DASS/Project/dass-project-spring-2024-team-41/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0C71E0-02C3-9A43-8FD3-D3254777F063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestPlan" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Instructions" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Monopoly Example" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="2" r:id="rId2"/>
+    <sheet name="Monopoly Example" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,19 +38,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
-  <si>
-    <t xml:space="preserve">Test Planner and Tracker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shailender Goyal (2022111023), 
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+  <si>
+    <t>Test Planner and Tracker</t>
+  </si>
+  <si>
+    <t>Shailender Goyal (2022111023), 
 Prithvi Karthik (2022101020), 
 Manasa Kalaimalai (2022101131), 
 Medha Prasad (2022101034), 
 Vinit Mehta (2022111001)</t>
   </si>
   <si>
-    <t xml:space="preserve">Test 
+    <t>Test 
 No. ID</t>
   </si>
   <si>
@@ -42,72 +58,72 @@
 Use case </t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-conditions</t>
+    <t>Pre-conditions</t>
   </si>
   <si>
     <t xml:space="preserve">Test Description (steps) 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Expected Outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1 Outcome (color code
+    <t>Expected Outcome</t>
+  </si>
+  <si>
+    <t>R1 Outcome (color code
 cell background)</t>
   </si>
   <si>
-    <t xml:space="preserve">Comments (if test case failed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2 Outcome (color code
+    <t>Comments (if test case failed)</t>
+  </si>
+  <si>
+    <t>R2 Outcome (color code
 cell background)</t>
   </si>
   <si>
-    <t xml:space="preserve">Drone Surveillance and Tracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drone must establish connection to the device with software via MavLink. Ground radar must establish connection with software.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ensure the software receives drone coordinates through MavLink. 
+    <t>Drone Surveillance and Tracking</t>
+  </si>
+  <si>
+    <t>Drone must establish connection to the device with software via MavLink. Ground radar must establish connection with software.</t>
+  </si>
+  <si>
+    <t>1. Ensure the software receives drone coordinates through MavLink. 
 2. Verify ground radar provides coordinates of enemy drones. 
 3. Check map resizes based on friendly drone position.</t>
   </si>
   <si>
-    <t xml:space="preserve">The map displays friendly drone position accurately in the center of the map.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drone must establish connection to the device with software via MavLink. Ground radar must establish connection with software. Radar should detect enemy drones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ensure the software receives drone coordinates through MavLink. 
+    <t>The map displays friendly drone position accurately in the center of the map.</t>
+  </si>
+  <si>
+    <t>Drone must establish connection to the device with software via MavLink. Ground radar must establish connection with software. Radar should detect enemy drones</t>
+  </si>
+  <si>
+    <t>1. Ensure the software receives drone coordinates through MavLink. 
 2. Verify ground radar provides coordinates of enemy drones. 
 3. Check map resizes based on distance between friendly and enemy drones.</t>
   </si>
   <si>
-    <t xml:space="preserve">The map displays friendly and enemy drone positions accurately within the specified radius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status Monitoring and Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drone must establish connection to device with software via MavLink.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Connect to the drone and check signal strength, remaining ammunition, and battery life. 
+    <t>The map displays friendly and enemy drone positions accurately within the specified radius.</t>
+  </si>
+  <si>
+    <t>Status Monitoring and Maintenance</t>
+  </si>
+  <si>
+    <t>Drone must establish connection to device with software via MavLink.</t>
+  </si>
+  <si>
+    <t>1. Connect to the drone and check signal strength, remaining ammunition, and battery life. 
 2. Verify operator can make decisions based on provided information.</t>
   </si>
   <si>
-    <t xml:space="preserve">Can view drone signal strength, remaining ammunition, and battery life.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Configuration and Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grid Lines &amp; Zoom: 
+    <t>Can view drone signal strength, remaining ammunition, and battery life.</t>
+  </si>
+  <si>
+    <t>User Configuration and Settings</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Grid Lines &amp; Zoom: 
 1. Toggle grid lines on/off. 
 2. Zoom in/out using corresponding icons. Updates &amp; No-kill zones: 
 3. Open settings panel. 
@@ -116,25 +132,25 @@
 6. Verify system encrypts and stores 'no-kill' zones locally.</t>
   </si>
   <si>
-    <t xml:space="preserve">Grid lines and zoom options are configurable. System updates are checked and 'no-kill' zones are encrypted and stored locally.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Threat Response and Engagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enemy drone must be detected by ground radar and information received by the system. 
+    <t>Grid lines and zoom options are configurable. System updates are checked and 'no-kill' zones are encrypted and stored locally.</t>
+  </si>
+  <si>
+    <t>Threat Response and Engagement</t>
+  </si>
+  <si>
+    <t>1. Enemy drone must be detected by ground radar and information received by the system. 
 2. Enemy drone should not be in a ‘no-kill’ zone.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Dispatch friendly drone to counter enemy drone.
+    <t>1. Dispatch friendly drone to counter enemy drone.
 2. Send kill command to friendly drone.
 3. Confirm kill command.</t>
   </si>
   <si>
-    <t xml:space="preserve">Friendly drone neutralizes enemy drone as commanded.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kill Confirmation</t>
+    <t>Friendly drone neutralizes enemy drone as commanded.</t>
+  </si>
+  <si>
+    <t>Kill Confirmation</t>
   </si>
   <si>
     <r>
@@ -153,228 +169,215 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">2. Enemy drone should not be in a ‘no-kill’ zone.</t>
+      <t>2. Enemy drone should not be in a ‘no-kill’ zone.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1. Initiate 'kill' command.
+    <t>1. Initiate 'kill' command.
 2. Switch to live video feed of drone.</t>
   </si>
   <si>
-    <t xml:space="preserve">Live video feed displays successful elimination of enemy drone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test plan Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is particularly important that you create a substantial set of Acceptance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tests. These are tests based on the requirements document.  Each acceptance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test should describe an operation to be performed by the user, and the</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expected outcomes from that operation.  The objective is to define a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comprehensive set of tests that between them cover all the features in the</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requirements document.  The tests should preferably cover all the frequent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"normal use" scenarios, as well as commonly occurring exception scenarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each acceptance test must be described as a set of user instructions for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">performing the test, much like a user manual.  The outcomes description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specifies how the user knows whether the test succeeded or failed. The</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reason for defining acceptance tests early in the life-cycle is to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facilitate "test-driven development".  Developers can look at the acceptance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tests that their module must satisfy, and thereby know exactly what behavior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is expected from their module. Make sure to update these if/when</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requirements change. Make sure to follow the suggested format.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monopoly Test Planner and Tracker (example)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game in test mode implies that the tester can control the outcome of the dice roll - assume dice roll can exceed 12 for testing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note that some of the test cases require previous test cases to be completed as a precondition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story covered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preconditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1 Outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2 Outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move Player</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game is in test mode.
+    <t>Live video feed displays successful elimination of enemy drone.</t>
+  </si>
+  <si>
+    <t>Test plan Instructions</t>
+  </si>
+  <si>
+    <t>It is particularly important that you create a substantial set of Acceptance</t>
+  </si>
+  <si>
+    <t>Tests. These are tests based on the requirements document.  Each acceptance</t>
+  </si>
+  <si>
+    <t>test should describe an operation to be performed by the user, and the</t>
+  </si>
+  <si>
+    <t>expected outcomes from that operation.  The objective is to define a</t>
+  </si>
+  <si>
+    <t>comprehensive set of tests that between them cover all the features in the</t>
+  </si>
+  <si>
+    <t>requirements document.  The tests should preferably cover all the frequent</t>
+  </si>
+  <si>
+    <t>"normal use" scenarios, as well as commonly occurring exception scenarios.</t>
+  </si>
+  <si>
+    <t>Each acceptance test must be described as a set of user instructions for</t>
+  </si>
+  <si>
+    <t>performing the test, much like a user manual.  The outcomes description</t>
+  </si>
+  <si>
+    <t>specifies how the user knows whether the test succeeded or failed. The</t>
+  </si>
+  <si>
+    <t>reason for defining acceptance tests early in the life-cycle is to</t>
+  </si>
+  <si>
+    <t>facilitate "test-driven development".  Developers can look at the acceptance</t>
+  </si>
+  <si>
+    <t>tests that their module must satisfy, and thereby know exactly what behavior</t>
+  </si>
+  <si>
+    <t>is expected from their module. Make sure to update these if/when</t>
+  </si>
+  <si>
+    <t>requirements change. Make sure to follow the suggested format.</t>
+  </si>
+  <si>
+    <t>Monopoly Test Planner and Tracker (example)</t>
+  </si>
+  <si>
+    <t>Game in test mode implies that the tester can control the outcome of the dice roll - assume dice roll can exceed 12 for testing.</t>
+  </si>
+  <si>
+    <t>Note that some of the test cases require previous test cases to be completed as a precondition.</t>
+  </si>
+  <si>
+    <t>Acceptance tests</t>
+  </si>
+  <si>
+    <t>Test No.</t>
+  </si>
+  <si>
+    <t>User Story covered</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>R1 Outcome</t>
+  </si>
+  <si>
+    <t>R2 Outcome</t>
+  </si>
+  <si>
+    <t>Move Player</t>
+  </si>
+  <si>
+    <t>Game is in test mode.
 Game is in initial state.
 Number of Players: 1
 Player 1 Name: Tester1</t>
   </si>
   <si>
-    <t xml:space="preserve">Player 1 Dice Roll Total : 5
+    <t>Player 1 Dice Roll Total : 5
 Player 1 End Turn</t>
   </si>
   <si>
-    <t xml:space="preserve">Player 1 is located at Reading Railroad cell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1 completed</t>
+    <t>Player 1 is located at Reading Railroad cell.</t>
+  </si>
+  <si>
+    <t>Test 1 completed</t>
   </si>
   <si>
     <t xml:space="preserve">Player 1 is located on Jail cell. </t>
   </si>
   <si>
-    <t xml:space="preserve">Move Players in Turns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game is in test mode.
+    <t>Move Players in Turns</t>
+  </si>
+  <si>
+    <t>Game is in test mode.
 Game is in initial state.
 Number of Players: 2
 Player 1 Name: Tester1
 Player 2 Name: Tester2</t>
   </si>
   <si>
-    <t xml:space="preserve">Player 1 Dice Roll: 5
+    <t>Player 1 Dice Roll: 5
 Player 1 End Turn</t>
   </si>
   <si>
-    <t xml:space="preserve">Player 1 is located at Reading Railroad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player 2 Dice Roll: 3
+    <t>Player 1 is located at Reading Railroad</t>
+  </si>
+  <si>
+    <t>Player 2 Dice Roll: 3
 Player 2 End Turn</t>
   </si>
   <si>
-    <t xml:space="preserve">Player 2 is located at Baltic Avenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass Go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game is in test mode.
+    <t>Player 2 is located at Baltic Avenue</t>
+  </si>
+  <si>
+    <t>Pass Go</t>
+  </si>
+  <si>
+    <t>Game is in test mode.
 Game is in initial state.
 Number of Players: 1
 Player 1 Name: Tester 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Player 1 Dice Roll: 39
+    <t>Player 1 Dice Roll: 39
 Player 1 End Turn</t>
   </si>
   <si>
-    <t xml:space="preserve">Player 1 is located at Boardwalk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Player 1 bank balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player 1 has $1500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game is in test mode
+    <t>Player 1 is located at Boardwalk</t>
+  </si>
+  <si>
+    <t>Verify Player 1 bank balance</t>
+  </si>
+  <si>
+    <t>Player 1 has $1500</t>
+  </si>
+  <si>
+    <t>Game is in test mode
 Game is in initial state.
 Number of Players: 1
 Player 1 Name: Tester 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Player 1 Dice Roll: 40
+    <t>Player 1 Dice Roll: 40
 Player 1 End Turn</t>
   </si>
   <si>
-    <t xml:space="preserve">Player 1 is located on GO cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player 1 has $1700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go money paid out only after passing GO, not when it is reached.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player 1 Dice Roll: 41
+    <t>Player 1 is located on GO cell</t>
+  </si>
+  <si>
+    <t>Player 1 has $1700</t>
+  </si>
+  <si>
+    <t>Go money paid out only after passing GO, not when it is reached.</t>
+  </si>
+  <si>
+    <t>Player 1 Dice Roll: 41
 Player 1 End Turn</t>
   </si>
   <si>
-    <t xml:space="preserve">Player 1 is located at
+    <t>Player 1 is located at
 Mediterranean Avenue</t>
+  </si>
+  <si>
+    <t>Client did not provide the custom mavlink messages to receive the information needed.</t>
+  </si>
+  <si>
+    <t>Planned to be implemented in R2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -382,7 +385,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -400,7 +403,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -412,8 +415,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,335 +441,335 @@
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="double"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="55">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -819,50 +828,381 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.29"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="n">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3">
         <v>41</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" s="7" customFormat="true" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -891,8 +1231,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -907,13 +1247,13 @@
       <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="114.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" spans="1:9" ht="126" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -928,13 +1268,13 @@
       <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+    <row r="5" spans="1:9" ht="70" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -949,13 +1289,15 @@
       <c r="E5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="54" t="s">
+        <v>84</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="114.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+    <row r="6" spans="1:9" ht="126" x14ac:dyDescent="0.15">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -970,14 +1312,14 @@
       <c r="E6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
-        <f aca="false">A6+1</f>
+    <row r="7" spans="1:9" ht="112" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
+        <f t="shared" ref="A7:A33" si="0">A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -992,14 +1334,16 @@
       <c r="E7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54" t="s">
+        <v>85</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
-        <f aca="false">A7+1</f>
+    <row r="8" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1014,14 +1358,16 @@
       <c r="E8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54" t="s">
+        <v>85</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
-        <f aca="false">A8+1</f>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="13"/>
@@ -1033,9 +1379,9 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
-        <f aca="false">A9+1</f>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="13"/>
@@ -1047,9 +1393,9 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
-        <f aca="false">A10+1</f>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="13"/>
@@ -1061,9 +1407,9 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
-        <f aca="false">A11+1</f>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="13"/>
@@ -1075,9 +1421,9 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
-        <f aca="false">A12+1</f>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="13"/>
@@ -1089,9 +1435,9 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
-        <f aca="false">A13+1</f>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="13"/>
@@ -1103,9 +1449,9 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
-        <f aca="false">A14+1</f>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="13"/>
@@ -1117,9 +1463,9 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="n">
-        <f aca="false">A15+1</f>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="13"/>
@@ -1131,9 +1477,9 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="n">
-        <f aca="false">A16+1</f>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="13"/>
@@ -1145,9 +1491,9 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="n">
-        <f aca="false">A17+1</f>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="11">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="13"/>
@@ -1159,9 +1505,9 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="n">
-        <f aca="false">A18+1</f>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="11">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="13"/>
@@ -1173,9 +1519,9 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
-        <f aca="false">A19+1</f>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="11">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="13"/>
@@ -1187,9 +1533,9 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
-        <f aca="false">A20+1</f>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="11">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="13"/>
@@ -1201,9 +1547,9 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
-        <f aca="false">A21+1</f>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="11">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="13"/>
@@ -1215,9 +1561,9 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="n">
-        <f aca="false">A22+1</f>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="13"/>
@@ -1229,9 +1575,9 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="n">
-        <f aca="false">A23+1</f>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="11">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="13"/>
@@ -1243,9 +1589,9 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="n">
-        <f aca="false">A24+1</f>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="11">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="13"/>
@@ -1257,9 +1603,9 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="n">
-        <f aca="false">A25+1</f>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="11">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="13"/>
@@ -1271,9 +1617,9 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="n">
-        <f aca="false">A26+1</f>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="11">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="13"/>
@@ -1285,9 +1631,9 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="n">
-        <f aca="false">A27+1</f>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="11">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="13"/>
@@ -1299,9 +1645,9 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="n">
-        <f aca="false">A28+1</f>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="11">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="13"/>
@@ -1313,9 +1659,9 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="n">
-        <f aca="false">A29+1</f>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="11">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="13"/>
@@ -1327,9 +1673,9 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="n">
-        <f aca="false">A30+1</f>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="11">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="13"/>
@@ -1341,9 +1687,9 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="n">
-        <f aca="false">A31+1</f>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="11">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="13"/>
@@ -1355,9 +1701,9 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="n">
-        <f aca="false">A32+1</f>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="11">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="13"/>
@@ -1374,171 +1720,159 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:F1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;R&amp;D</oddHeader>
-    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:B17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24"/>
+    <col min="2" max="2" width="68.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:2" ht="16" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:2" ht="16" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:2" ht="16" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:2" ht="16" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:2" ht="16" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:2" ht="16" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:2" ht="16" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:2" ht="16" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:2" ht="16" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:2" ht="16" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:2" ht="16" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:2" ht="16" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:2" ht="16" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:2" ht="16" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:2" ht="16" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.29"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
     </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
         <v>53</v>
       </c>
@@ -1561,8 +1895,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="n">
+    <row r="8" spans="1:7" ht="56" x14ac:dyDescent="0.15">
+      <c r="A8" s="21">
         <v>1</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -1580,8 +1914,8 @@
       <c r="F8" s="25"/>
       <c r="G8" s="26"/>
     </row>
-    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="n">
+    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A9" s="27">
         <v>2</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -1599,8 +1933,8 @@
       <c r="F9" s="31"/>
       <c r="G9" s="26"/>
     </row>
-    <row r="10" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="n">
+    <row r="10" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+      <c r="A10" s="32">
         <v>3</v>
       </c>
       <c r="B10" s="33" t="s">
@@ -1618,7 +1952,7 @@
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -1631,8 +1965,8 @@
       <c r="F11" s="38"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="n">
+    <row r="12" spans="1:7" ht="56" x14ac:dyDescent="0.15">
+      <c r="A12" s="40">
         <v>4</v>
       </c>
       <c r="B12" s="41" t="s">
@@ -1650,7 +1984,7 @@
       <c r="F12" s="44"/>
       <c r="G12" s="45"/>
     </row>
-    <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -1663,8 +1997,8 @@
       <c r="F13" s="25"/>
       <c r="G13" s="39"/>
     </row>
-    <row r="14" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="n">
+    <row r="14" spans="1:7" ht="56" x14ac:dyDescent="0.15">
+      <c r="A14" s="40">
         <v>5</v>
       </c>
       <c r="B14" s="41" t="s">
@@ -1682,7 +2016,7 @@
       <c r="F14" s="44"/>
       <c r="G14" s="45"/>
     </row>
-    <row r="15" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -1697,8 +2031,8 @@
       </c>
       <c r="G15" s="39"/>
     </row>
-    <row r="16" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40" t="n">
+    <row r="16" spans="1:7" ht="56" x14ac:dyDescent="0.15">
+      <c r="A16" s="40">
         <v>6</v>
       </c>
       <c r="B16" s="41" t="s">
@@ -1716,7 +2050,7 @@
       <c r="F16" s="47"/>
       <c r="G16" s="45"/>
     </row>
-    <row r="17" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -1729,7 +2063,7 @@
       <c r="F17" s="48"/>
       <c r="G17" s="39"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -1739,12 +2073,7 @@
       <c r="G18" s="49"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>